--- a/bootscan/breakpoints_ictv.xlsx
+++ b/bootscan/breakpoints_ictv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/bootscan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/bootscan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA3CC7B-476F-AE4F-86D0-9978E72EDE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC5F1F-AF99-7348-9E26-E3D2570D1C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="740" windowWidth="17820" windowHeight="17980" xr2:uid="{C3638C98-5801-2940-A9B6-E7CEAAFF9F9E}"/>
+    <workbookView xWindow="640" yWindow="740" windowWidth="17820" windowHeight="17980" xr2:uid="{C3638C98-5801-2940-A9B6-E7CEAAFF9F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="breakpoints" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>virus</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>2400-2420</t>
-  </si>
-  <si>
-    <t>cross</t>
   </si>
   <si>
     <t>perm</t>
@@ -175,8 +172,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,13 +491,13 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E10"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,14 +507,14 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,7 +541,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -558,7 +555,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -566,292 +563,280 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>240</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>1220</v>
       </c>
       <c r="C6" s="2">
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>2090</v>
       </c>
       <c r="C8" s="2">
         <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>5270</v>
       </c>
       <c r="C9" s="2">
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>3230</v>
       </c>
       <c r="C12" s="2">
         <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>200</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1380</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>1940</v>
       </c>
       <c r="C15" s="1">
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>2080</v>
       </c>
       <c r="C16" s="1">
         <v>9.5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>2520</v>
       </c>
       <c r="C18" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>2820</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>3260</v>
       </c>
       <c r="C20" s="1">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>3740</v>
       </c>
       <c r="C21" s="2">
         <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>4600</v>
       </c>
       <c r="C22" s="2">
         <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>4840</v>
       </c>
       <c r="C23" s="1">
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>4920</v>
       </c>
       <c r="C24" s="1">
         <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -865,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -879,7 +864,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -893,20 +878,20 @@
         <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
